--- a/doc/training/samples/Example_Metadata.xlsx
+++ b/doc/training/samples/Example_Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/menons2/Development/HPC_DME_APIs/doc/training/samples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frostrs\Documents\GitHub\HPC_DME_APIs\doc\training\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8E1221-F807-A446-879A-04E4CB805E35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08D3383B-1349-4CFA-ACE7-F06B3CB372EB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="6140" windowWidth="35300" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3396" yWindow="6144" windowWidth="35304" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_Bulk_Metadata" sheetId="1" r:id="rId1"/>
@@ -100,15 +100,9 @@
     <t>Zero-Inflated Negative Binomial modeling of EM data</t>
   </si>
   <si>
-    <t xml:space="preserve"> Modeling of environmental monitoring (EM) data from VCMP using zero-inflated negative binomial regression. I gave them a report, and they were concerned that the critical thresholds were too low. I re-ran the analysis using a Poisson regression - It did result in higher critical thresholds, but an analysis of the models indicates that the Negative Binomial model is a better fit to the data. In the end they chose the Poisson model -- also found a small error in the output of the Poisson model. Fixed this and gave them the results.</t>
-  </si>
-  <si>
     <t>Zero-Inflated Regression</t>
   </si>
   <si>
-    <t>Grace Sey</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
@@ -173,6 +167,12 @@
   </si>
   <si>
     <t>EM, VRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modeling of environmental monitoring (EM) data from VCMP using zero-inflated negative binomial regression. Ran the analysis using a Poisson regression to obtain higher critical thresholds.</t>
+  </si>
+  <si>
+    <t>Jane Doe</t>
   </si>
 </sst>
 </file>
@@ -1028,15 +1028,15 @@
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.33203125" customWidth="1"/>
+    <col min="1" max="1" width="63.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1107,9 +1107,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -1124,91 +1124,91 @@
         <v>43227</v>
       </c>
       <c r="H2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>49</v>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
-        <v>29</v>
+      <c r="B5" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>43</v>
       </c>
-      <c r="O4" t="s">
-        <v>30</v>
-      </c>
-      <c r="P4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="O6" t="s">
         <v>33</v>
       </c>
+      <c r="S6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>44</v>
       </c>
-      <c r="B5" t="s">
-        <v>34</v>
+      <c r="B7" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>45</v>
       </c>
-      <c r="O6" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" t="s">
+      <c r="O8" t="s">
         <v>36</v>
       </c>
-      <c r="T6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="U8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="V8" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" t="s">
         <v>38</v>
-      </c>
-      <c r="U8" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" t="s">
-        <v>41</v>
-      </c>
-      <c r="W8" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
